--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{485A8B26-D15B-4CFE-9B25-078EF26269FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BFAC037-FA45-4E5D-BCFD-ABA7F9B6CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1810" windowWidth="20850" windowHeight="18990" xr2:uid="{E6E690D2-158F-493D-9569-8823097D0084}"/>
+    <workbookView xWindow="5670" yWindow="1810" windowWidth="20850" windowHeight="18990" xr2:uid="{2FF05930-B5F1-4EF6-9091-605997479037}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -66,19 +66,19 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C21, C22, CH1 C23, CH1 C24, CH2 C23, CH2 C24, CH3 C23, CH3 C24, CH4 C23, CH4 C24, CH5 C23, CH5 C24</t>
+    <t>C21, C22, CH1_C23, CH1_C24, CH2_C23, CH2_C24, CH3_C23, CH3_C24, CH4_C23, CH4_C24, CH5_C23, CH5_C24</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>CH1 J2, CH2 J2, CH3 J2, CH4 J2, CH5 J2</t>
+    <t>CH1_J2, CH2_J2, CH3_J2, CH4_J2, CH5_J2</t>
   </si>
   <si>
     <t>Molex 502426-2030</t>
   </si>
   <si>
-    <t>CH1 R7, CH1 R8, CH2 R7, CH2 R8, CH3 R7, CH3 R8, CH4 R7, CH4 R8, CH5 R7, CH5 R8, R3, R4, R5, R6</t>
+    <t>CH1_R7, CH1_R8, CH2_R7, CH2_R8, CH3_R7, CH3_R8, CH4_R7, CH4_R8, CH5_R7, CH5_R8, R3, R4, R5, R6</t>
   </si>
   <si>
     <t>4.7kR</t>
@@ -87,7 +87,7 @@
     <t>Resistor 0402</t>
   </si>
   <si>
-    <t>CH1 U9, CH2 U9, CH3 U9, CH4 U9, CH5 U9, U7</t>
+    <t>CH1_U9, CH2_U9, CH3_U9, CH4_U9, CH5_U9, U7</t>
   </si>
   <si>
     <t>SN74LVC1G97DRL</t>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CF9CFF-7479-43D4-8C7A-698A313933A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FEF13E-3224-4BA4-AE36-3D3FF858D3DD}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BFAC037-FA45-4E5D-BCFD-ABA7F9B6CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE0A529-20EE-4DE3-A9B8-E32152E2F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1810" windowWidth="20850" windowHeight="18990" xr2:uid="{2FF05930-B5F1-4EF6-9091-605997479037}"/>
+    <workbookView xWindow="-28620" yWindow="230" windowWidth="20850" windowHeight="18990" xr2:uid="{AAFFA758-9CB8-4581-B243-09E43E637D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C19, C20</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8</t>
   </si>
   <si>
     <t>10uF</t>
@@ -66,7 +66,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C21, C22, CH1_C23, CH1_C24, CH2_C23, CH2_C24, CH3_C23, CH3_C24, CH4_C23, CH4_C24, CH5_C23, CH5_C24</t>
+    <t>C19, C20, C21, C22, CH1_C23, CH1_C24, CH2_C23, CH2_C24, CH3_C23, CH3_C24, CH4_C23, CH4_C24, CH5_C23, CH5_C24</t>
   </si>
   <si>
     <t>1uF</t>
@@ -90,7 +90,7 @@
     <t>CH1_U9, CH2_U9, CH3_U9, CH4_U9, CH5_U9, U7</t>
   </si>
   <si>
-    <t>SN74LVC1G97DRL</t>
+    <t>SN74LVC1G97DRLR</t>
   </si>
   <si>
     <t>SOT-666</t>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FEF13E-3224-4BA4-AE36-3D3FF858D3DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC9C2BB-B8B9-445D-83A2-1D0E28258424}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>

--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DE0A529-20EE-4DE3-A9B8-E32152E2F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C803FE7A-3B41-4788-8FC4-AAA29DE36723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28620" yWindow="230" windowWidth="20850" windowHeight="18990" xr2:uid="{AAFFA758-9CB8-4581-B243-09E43E637D3D}"/>
+    <workbookView xWindow="-28620" yWindow="230" windowWidth="20850" windowHeight="18990" xr2:uid="{ED586633-535C-454B-9C83-7009FADB00B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Designator</t>
   </si>
@@ -78,7 +78,7 @@
     <t>Molex 502426-2030</t>
   </si>
   <si>
-    <t>CH1_R7, CH1_R8, CH2_R7, CH2_R8, CH3_R7, CH3_R8, CH4_R7, CH4_R8, CH5_R7, CH5_R8, R3, R4, R5, R6</t>
+    <t>CH1_R8, CH1_R9, CH2_R8, CH2_R9, CH3_R8, CH3_R9, CH4_R8, CH4_R9, CH5_R8, CH5_R9, R4, R5, R6, R7</t>
   </si>
   <si>
     <t>4.7kR</t>
@@ -117,10 +117,16 @@
     <t>VG0832014L</t>
   </si>
   <si>
-    <t>R1, R2</t>
+    <t>R1, R3</t>
   </si>
   <si>
     <t>10kR</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>470R</t>
   </si>
   <si>
     <t>U1</t>
@@ -550,8 +556,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC9C2BB-B8B9-445D-83A2-1D0E28258424}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94650-CBFA-45C1-A72C-C1561B911107}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -728,21 +734,21 @@
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -756,32 +762,32 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>40</v>
@@ -792,7 +798,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
@@ -812,7 +818,21 @@
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C803FE7A-3B41-4788-8FC4-AAA29DE36723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18E72C5-E7CF-45C7-AEEF-82BE72ECE36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28620" yWindow="230" windowWidth="20850" windowHeight="18990" xr2:uid="{ED586633-535C-454B-9C83-7009FADB00B9}"/>
+    <workbookView xWindow="-28620" yWindow="230" windowWidth="20850" windowHeight="18990" xr2:uid="{3C8CB7D7-4D36-46BF-90A8-2C88A510A637}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94650-CBFA-45C1-A72C-C1561B911107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D47F5E-B6DD-4ADC-8722-F60B23677A5D}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18E72C5-E7CF-45C7-AEEF-82BE72ECE36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEAC04A-5553-4587-B47A-881BE7EAC441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28620" yWindow="230" windowWidth="20850" windowHeight="18990" xr2:uid="{3C8CB7D7-4D36-46BF-90A8-2C88A510A637}"/>
+    <workbookView xWindow="-26220" yWindow="1840" windowWidth="20850" windowHeight="18990" xr2:uid="{C8121AEE-4E65-438F-A8EC-B81A049E8460}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>3.3uH, 80mR (SRN3015C-3R3M)</t>
   </si>
   <si>
-    <t>LQH3NPN</t>
+    <t>SRN3015C</t>
   </si>
   <si>
     <t>M1</t>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D47F5E-B6DD-4ADC-8722-F60B23677A5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F8029-8AED-4DEC-BF9A-6C8A6FF19BD9}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEAC04A-5553-4587-B47A-881BE7EAC441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D8E936-97BF-4B6F-9A31-628F526191FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="1840" windowWidth="20850" windowHeight="18990" xr2:uid="{C8121AEE-4E65-438F-A8EC-B81A049E8460}"/>
+    <workbookView xWindow="-26220" yWindow="1840" windowWidth="20850" windowHeight="18990" xr2:uid="{0F2B0C79-93F3-4291-8F20-A5CB8AE31BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F8029-8AED-4DEC-BF9A-6C8A6FF19BD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEBAA21-2BB4-4F12-8101-DD4EEEA2617F}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D8E936-97BF-4B6F-9A31-628F526191FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFA8192-E1B4-4899-BA03-455EA0721D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="1840" windowWidth="20850" windowHeight="18990" xr2:uid="{0F2B0C79-93F3-4291-8F20-A5CB8AE31BBF}"/>
+    <workbookView xWindow="5840" yWindow="2160" windowWidth="20850" windowHeight="18990" xr2:uid="{4BDE4BC3-58F5-4AE0-AE6E-5AE00A805238}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEBAA21-2BB4-4F12-8101-DD4EEEA2617F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4823D6-E88B-4951-9F0B-282D982AA2C0}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFA8192-E1B4-4899-BA03-455EA0721D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71BFC745-732F-4C0C-B37B-E14BF0FE7E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="2160" windowWidth="20850" windowHeight="18990" xr2:uid="{4BDE4BC3-58F5-4AE0-AE6E-5AE00A805238}"/>
+    <workbookView xWindow="5840" yWindow="2160" windowWidth="20850" windowHeight="18990" xr2:uid="{3F441838-1467-4EFC-82AD-F60FDAB513E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4823D6-E88B-4951-9F0B-282D982AA2C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D87451D-1FE3-411E-9A3E-155A50CACE92}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
+++ b/Project Outputs for MICA-Glove-Carpus/BOM/Bill of Materials-MICA-Glove-Carpus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\MICA-Glove-Carpus\Project Outputs for MICA-Glove-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71BFC745-732F-4C0C-B37B-E14BF0FE7E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{025C26E6-1DCC-46B4-B10D-285503CDD603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="2160" windowWidth="20850" windowHeight="18990" xr2:uid="{3F441838-1467-4EFC-82AD-F60FDAB513E9}"/>
+    <workbookView xWindow="1050" yWindow="2410" windowWidth="21210" windowHeight="16250" xr2:uid="{D60AFEEE-6DDA-4EFA-AFE6-5C76478A9B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MICA-Glove-Ca" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D87451D-1FE3-411E-9A3E-155A50CACE92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE71C3F4-B635-4B66-AA92-48BD553897F3}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -837,6 +837,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>